--- a/biology/Zoologie/Anas_marecula/Anas_marecula.xlsx
+++ b/biology/Zoologie/Anas_marecula/Anas_marecula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas marecula est une espèce éteinte d'oiseaux de la famille des Anatidae.
-Ce canard était incapable de voler et n'est connu que par un témoignage du XVIIIe siècle et des ossements. Il s'est probablement éteint en raison de visites de marins et des rats qu'ils ont introduits dans son milieu[1].
+Ce canard était incapable de voler et n'est connu que par un témoignage du XVIIIe siècle et des ossements. Il s'est probablement éteint en raison de visites de marins et des rats qu'ils ont introduits dans son milieu.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était endémique de l'île Amsterdam dans le sud de l'océan Indien.
 </t>
